--- a/excelGerado.xlsx
+++ b/excelGerado.xlsx
@@ -12,7 +12,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Identificação</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Idade</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Marina Azevedo</t>
+  </si>
+  <si>
+    <t>Otavio Mendonça</t>
+  </si>
+  <si>
+    <t>Ivan Nunes</t>
+  </si>
+  <si>
+    <t>Priscila Mendes</t>
+  </si>
+  <si>
+    <t>Nelson Garcia</t>
+  </si>
+  <si>
+    <t>Joana Aguiar</t>
+  </si>
+  <si>
+    <t>Leonardo Martins</t>
+  </si>
+  <si>
+    <t>Letícia Rodrigues</t>
+  </si>
+  <si>
+    <t>José dos Santos</t>
+  </si>
+  <si>
+    <t>Janaina Gomes</t>
+  </si>
   <si>
     <t>Rodolfo Maia</t>
   </si>
@@ -20,30 +62,6 @@
     <t>Antônio Fernandes</t>
   </si>
   <si>
-    <t>Ivan Nunes</t>
-  </si>
-  <si>
-    <t>Priscila Mendes</t>
-  </si>
-  <si>
-    <t>Nelson Garcia</t>
-  </si>
-  <si>
-    <t>Joana Aguiar</t>
-  </si>
-  <si>
-    <t>Leonardo Martins</t>
-  </si>
-  <si>
-    <t>Letícia Rodrigues</t>
-  </si>
-  <si>
-    <t>José dos Santos</t>
-  </si>
-  <si>
-    <t>Janaina Gomes</t>
-  </si>
-  <si>
     <t>Gabriel Pereira</t>
   </si>
   <si>
@@ -60,12 +78,6 @@
   </si>
   <si>
     <t>Larissa Diniz</t>
-  </si>
-  <si>
-    <t>Marina Azevedo</t>
-  </si>
-  <si>
-    <t>Otavio Mendonça</t>
   </si>
 </sst>
 </file>
@@ -117,255 +129,269 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>394041.0</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="D1" t="n">
-        <v>33.0</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>151617.0</v>
+        <v>454647.0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="D2" t="n">
-        <v>30.67</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>484950.0</v>
+        <v>545556.0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="D3" t="n">
-        <v>27.0</v>
+        <v>22.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>181920.0</v>
+        <v>484950.0</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="D4" t="n">
-        <v>33.33</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>272829.0</v>
+        <v>181920.0</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>29.0</v>
       </c>
       <c r="D5" t="n">
-        <v>23.67</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>121314.0</v>
+        <v>272829.0</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D6" t="n">
-        <v>20.0</v>
+        <v>23.67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>212223.0</v>
+        <v>121314.0</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>31.0</v>
       </c>
       <c r="D7" t="n">
-        <v>12.67</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>424344.0</v>
+        <v>212223.0</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
         <v>31.0</v>
       </c>
       <c r="D8" t="n">
-        <v>29.67</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>789101.0</v>
+        <v>424344.0</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
         <v>31.0</v>
       </c>
       <c r="D9" t="n">
-        <v>21.67</v>
+        <v>29.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>242526.0</v>
+        <v>789101.0</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="D10" t="n">
-        <v>21.33</v>
+        <v>21.67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>333435.0</v>
+        <v>242526.0</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0</v>
+        <v>32.0</v>
       </c>
       <c r="D11" t="n">
-        <v>22.0</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>575859.0</v>
+        <v>394041.0</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="D12" t="n">
-        <v>33.33</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>123456.0</v>
+        <v>151617.0</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="D13" t="n">
-        <v>25.0</v>
+        <v>30.67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>303132.0</v>
+        <v>333435.0</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="D14" t="n">
-        <v>29.33</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>515253.0</v>
+        <v>575859.0</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="D15" t="n">
-        <v>31.67</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>363738.0</v>
+        <v>123456.0</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="D16" t="n">
-        <v>24.67</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>454647.0</v>
+        <v>303132.0</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="D17" t="n">
-        <v>21.0</v>
+        <v>29.33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>545556.0</v>
+        <v>515253.0</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>31.67</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>363738.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="n">
         <v>27.0</v>
       </c>
-      <c r="D18" t="n">
-        <v>22.67</v>
+      <c r="D19" t="n">
+        <v>24.67</v>
       </c>
     </row>
   </sheetData>
